--- a/Color/BOM/BOM_CGB.xlsx
+++ b/Color/BOM/BOM_CGB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="229">
   <si>
     <t>Qty</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>100R</t>
-  </si>
-  <si>
-    <t>R26, R27</t>
   </si>
   <si>
     <t>100pF</t>
@@ -697,6 +694,18 @@
   </si>
   <si>
     <t>= Part has to be taken over from donor board</t>
+  </si>
+  <si>
+    <t>R27</t>
+  </si>
+  <si>
+    <t>R26</t>
+  </si>
+  <si>
+    <t>5.6K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71-CRCW06035K60JNEA </t>
   </si>
 </sst>
 </file>
@@ -849,7 +858,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -876,6 +885,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1210,10 +1222,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H83"/>
+  <dimension ref="B3:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1227,68 +1239,68 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D4" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="21"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D5" s="22"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D6" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D4" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="20"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="23"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D6" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D12" s="10"/>
-      <c r="E12" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="F12" s="15"/>
+      <c r="E12" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D13" s="13"/>
-      <c r="E13" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="F13" s="15"/>
+      <c r="E13" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F13" s="16"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>6</v>
@@ -1300,7 +1312,7 @@
         <v>2</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>0</v>
@@ -1352,7 +1364,7 @@
         <v>8</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
@@ -1375,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
@@ -1398,7 +1410,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
@@ -1421,7 +1433,7 @@
         <v>7</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
@@ -1444,7 +1456,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
@@ -1467,812 +1479,812 @@
         <v>1</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="2">
+      <c r="B23" s="14">
         <v>8</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G23" s="14">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="14">
+        <v>9</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="2">
-        <v>2</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="2">
-        <v>9</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="E24" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>25</v>
+        <v>225</v>
       </c>
       <c r="G24" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="2">
+      <c r="B25" s="14">
         <v>10</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G25" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="2">
+      <c r="B26" s="14">
         <v>11</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="14">
+        <v>12</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" s="2">
-        <v>1</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="2">
-        <v>12</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="G27" s="2">
         <v>1</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="2">
+      <c r="B28" s="14">
         <v>13</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="2">
+      <c r="B29" s="14">
         <v>14</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="2">
+      <c r="B30" s="14">
         <v>15</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="14">
+        <v>16</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="3" t="s">
+      <c r="G31" s="2">
+        <v>1</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="14">
+        <v>17</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G30" s="2">
-        <v>1</v>
-      </c>
-      <c r="H30" s="3" t="s">
+      <c r="E32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="2">
-        <v>16</v>
-      </c>
-      <c r="C31" s="3" t="s">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="14">
+        <v>18</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="14">
+        <v>19</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="14">
+        <v>20</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35" s="2">
+        <v>3</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="14">
+        <v>21</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G31" s="2">
-        <v>1</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="2">
-        <v>17</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G32" s="2">
-        <v>1</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="2">
-        <v>18</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" s="2">
-        <v>1</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="2">
-        <v>19</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F34" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G34" s="2">
-        <v>3</v>
-      </c>
-      <c r="H34" s="3" t="s">
+      <c r="E36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G36" s="2">
+        <v>2</v>
+      </c>
+      <c r="H36" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="2">
-        <v>20</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G35" s="2">
-        <v>2</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="2">
-        <v>21</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G36" s="2">
-        <v>1</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="2">
+      <c r="B37" s="14">
         <v>22</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="14">
+        <v>23</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" s="3" t="s">
+      <c r="G38" s="2">
+        <v>1</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="14">
+        <v>24</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G37" s="2">
-        <v>1</v>
-      </c>
-      <c r="H37" s="3" t="s">
+      <c r="D39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" s="2">
+        <v>2</v>
+      </c>
+      <c r="H39" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="2">
-        <v>23</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F38" s="3" t="s">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="14">
+        <v>25</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G38" s="2">
-        <v>2</v>
-      </c>
-      <c r="H38" s="3" t="s">
+      <c r="D40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G40" s="2">
+        <v>1</v>
+      </c>
+      <c r="H40" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="2">
-        <v>24</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G39" s="2">
-        <v>1</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="2">
-        <v>25</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G40" s="2">
-        <v>3</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="2">
+      <c r="B41" s="14">
         <v>26</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="F41" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G41" s="2">
+        <v>3</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42" s="14">
+        <v>27</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G42" s="2">
         <v>10</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="2">
-        <v>27</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G42" s="2">
-        <v>2</v>
-      </c>
       <c r="H42" s="3" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="2">
+      <c r="B43" s="14">
         <v>28</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D43" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G43" s="2">
+        <v>2</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44" s="14">
+        <v>29</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G43" s="2">
-        <v>1</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="2">
-        <v>29</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="G44" s="2">
         <v>1</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="2">
+      <c r="B45" s="14">
         <v>30</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G45" s="2">
+        <v>1</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46" s="14">
+        <v>31</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="F46" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="G46" s="2">
+        <v>1</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47" s="14">
+        <v>32</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G45" s="2">
-        <v>1</v>
-      </c>
-      <c r="H45" s="3" t="s">
+      <c r="E47" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G47" s="2">
+        <v>1</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48" s="14">
+        <v>33</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G48" s="2">
+        <v>1</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B49" s="14">
+        <v>34</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G49" s="2">
+        <v>1</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B50" s="14">
+        <v>35</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G50" s="2">
+        <v>3</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B51" s="14">
+        <v>36</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G51" s="2">
+        <v>2</v>
+      </c>
+      <c r="H51" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="2">
-        <v>31</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G46" s="2">
-        <v>1</v>
-      </c>
-      <c r="H46" s="3" t="s">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B52" s="14">
+        <v>37</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G52" s="2">
+        <v>1</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B53" s="14">
+        <v>38</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G53" s="2">
+        <v>2</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B54" s="14">
+        <v>39</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G54" s="2">
+        <v>1</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B55" s="14">
+        <v>40</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G55" s="2">
+        <v>2</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B56" s="5">
+        <v>41</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G56" s="5">
+        <v>1</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B57" s="14">
+        <v>42</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G57" s="2">
+        <v>2</v>
+      </c>
+      <c r="H57" s="3" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="2">
-        <v>32</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G47" s="2">
-        <v>1</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B48" s="2">
-        <v>33</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G48" s="2">
-        <v>1</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B49" s="2">
-        <v>34</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G49" s="2">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B50" s="2">
-        <v>35</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G50" s="2">
-        <v>2</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B51" s="2">
-        <v>36</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G51" s="2">
-        <v>1</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B52" s="2">
-        <v>37</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G52" s="2">
-        <v>2</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B53" s="2">
-        <v>38</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G53" s="2">
-        <v>1</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B54" s="2">
-        <v>39</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G54" s="2">
-        <v>2</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B55" s="5">
-        <v>40</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G55" s="5">
-        <v>1</v>
-      </c>
-      <c r="H55" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B56" s="2">
-        <v>41</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G56" s="2">
-        <v>2</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B57" s="5">
-        <v>42</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G57" s="5">
-        <v>1</v>
-      </c>
-      <c r="H57" s="8" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
@@ -2280,22 +2292,22 @@
         <v>43</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>108</v>
+        <v>101</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G58" s="5">
         <v>1</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
@@ -2303,22 +2315,22 @@
         <v>44</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G59" s="5">
         <v>1</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
@@ -2326,22 +2338,22 @@
         <v>45</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G60" s="5">
         <v>1</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
@@ -2349,22 +2361,22 @@
         <v>46</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G61" s="5">
         <v>1</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
@@ -2372,91 +2384,91 @@
         <v>47</v>
       </c>
       <c r="C62" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D62" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D62" s="6" t="s">
-        <v>103</v>
-      </c>
       <c r="E62" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F62" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G62" s="5">
+        <v>1</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B63" s="5">
+        <v>48</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G63" s="5">
+        <v>1</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B64" s="14">
+        <v>49</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G62" s="5">
-        <v>1</v>
-      </c>
-      <c r="H62" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B63" s="2">
-        <v>48</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D63" s="3" t="s">
+      <c r="E64" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E63" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F63" s="3" t="s">
+      <c r="G64" s="2">
+        <v>6</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B65" s="14">
+        <v>50</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G63" s="2">
-        <v>6</v>
-      </c>
-      <c r="H63" s="3" t="s">
+      <c r="E65" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G65" s="2">
+        <v>3</v>
+      </c>
+      <c r="H65" s="3" t="s">
         <v>212</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B64" s="2">
-        <v>49</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G64" s="2">
-        <v>3</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B65" s="5">
-        <v>50</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="G65" s="5">
-        <v>1</v>
-      </c>
-      <c r="H65" s="8" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.3">
@@ -2464,22 +2476,22 @@
         <v>51</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G66" s="5">
         <v>1</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.3">
@@ -2487,22 +2499,22 @@
         <v>52</v>
       </c>
       <c r="C67" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D67" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D67" s="6" t="s">
-        <v>128</v>
-      </c>
       <c r="E67" s="6" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G67" s="5">
         <v>1</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.3">
@@ -2510,22 +2522,22 @@
         <v>53</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G68" s="5">
         <v>1</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.3">
@@ -2533,68 +2545,68 @@
         <v>54</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D69" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G69" s="5">
+        <v>1</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B70" s="5">
+        <v>55</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F70" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E69" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F69" s="6" t="s">
+      <c r="G70" s="5">
+        <v>1</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B71" s="14">
+        <v>56</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="G69" s="5">
-        <v>1</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B70" s="2">
-        <v>55</v>
-      </c>
-      <c r="C70" s="3" t="s">
+      <c r="D71" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F71" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G70" s="2">
+      <c r="G71" s="2">
         <v>2</v>
       </c>
-      <c r="H70" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B71" s="5">
-        <v>56</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G71" s="5">
-        <v>1</v>
-      </c>
-      <c r="H71" s="8" t="s">
-        <v>173</v>
+      <c r="H71" s="3" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.3">
@@ -2602,91 +2614,91 @@
         <v>57</v>
       </c>
       <c r="C72" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G72" s="5">
+        <v>1</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B73" s="5">
+        <v>58</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F73" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D72" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F72" s="6" t="s">
+      <c r="G73" s="5">
+        <v>1</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B74" s="14">
+        <v>59</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="G72" s="5">
-        <v>1</v>
-      </c>
-      <c r="H72" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B73" s="2">
-        <v>58</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D73" s="3" t="s">
+      <c r="E74" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="F74" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="F73" s="3" t="s">
+      <c r="G74" s="2">
+        <v>1</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B75" s="14">
+        <v>60</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="G73" s="2">
-        <v>1</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B74" s="2">
-        <v>59</v>
-      </c>
-      <c r="C74" s="3" t="s">
+      <c r="D75" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="E75" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="F75" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G74" s="2">
-        <v>1</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B75" s="5">
-        <v>60</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="G75" s="5">
-        <v>1</v>
-      </c>
-      <c r="H75" s="8" t="s">
-        <v>173</v>
+      <c r="G75" s="2">
+        <v>1</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.3">
@@ -2694,22 +2706,22 @@
         <v>61</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G76" s="5">
         <v>1</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.3">
@@ -2717,22 +2729,22 @@
         <v>62</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G77" s="5">
         <v>1</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.3">
@@ -2740,22 +2752,22 @@
         <v>63</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G78" s="5">
         <v>1</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.3">
@@ -2763,22 +2775,22 @@
         <v>64</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>158</v>
+        <v>55</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G79" s="5">
         <v>1</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.3">
@@ -2786,22 +2798,22 @@
         <v>65</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G80" s="5">
         <v>1</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.3">
@@ -2809,22 +2821,22 @@
         <v>66</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G81" s="5">
         <v>1</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.3">
@@ -2832,45 +2844,68 @@
         <v>67</v>
       </c>
       <c r="C82" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G82" s="5">
+        <v>1</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B83" s="5">
+        <v>68</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D83" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="E83" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="E82" s="6" t="s">
+      <c r="F83" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="F82" s="6" t="s">
+      <c r="G83" s="5">
+        <v>1</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B84" s="14">
+        <v>69</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G82" s="5">
-        <v>1</v>
-      </c>
-      <c r="H82" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B83" s="2">
-        <v>68</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D83" s="3" t="s">
+      <c r="E84" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="F84" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G83" s="2">
-        <v>1</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>217</v>
+      <c r="G84" s="2">
+        <v>1</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/Color/BOM/BOM_CGB.xlsx
+++ b/Color/BOM/BOM_CGB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="230">
   <si>
     <t>Qty</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>C11</t>
-  </si>
-  <si>
-    <t>C19, C13, C23, C29, C33, C41, C45</t>
   </si>
   <si>
     <t>C14, C15, C16</t>
@@ -706,6 +703,12 @@
   </si>
   <si>
     <t xml:space="preserve">71-CRCW06035K60JNEA </t>
+  </si>
+  <si>
+    <t>VR2</t>
+  </si>
+  <si>
+    <t>C10, C13, C23, C29, C33, C41, C45</t>
   </si>
 </sst>
 </file>
@@ -1224,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1240,14 +1243,14 @@
   <sheetData>
     <row r="3" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D3" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D4" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="21"/>
@@ -1259,7 +1262,7 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D6" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
@@ -1287,20 +1290,20 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D12" s="10"/>
       <c r="E12" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F12" s="16"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D13" s="13"/>
       <c r="E13" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F13" s="16"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>6</v>
@@ -1312,7 +1315,7 @@
         <v>2</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>0</v>
@@ -1364,7 +1367,7 @@
         <v>8</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
@@ -1387,7 +1390,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
@@ -1410,7 +1413,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
@@ -1427,13 +1430,13 @@
         <v>5</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>20</v>
+        <v>229</v>
       </c>
       <c r="G20" s="2">
         <v>7</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
@@ -1450,13 +1453,13 @@
         <v>5</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G21" s="2">
         <v>3</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
@@ -1479,7 +1482,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
@@ -1490,19 +1493,19 @@
         <v>11</v>
       </c>
       <c r="D23" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G23" s="14">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
         <v>227</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="G23" s="14">
-        <v>1</v>
-      </c>
-      <c r="H23" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
@@ -1513,19 +1516,19 @@
         <v>11</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
@@ -1536,19 +1539,19 @@
         <v>8</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="G25" s="2">
         <v>4</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
@@ -1559,19 +1562,19 @@
         <v>8</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="G26" s="2">
         <v>1</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
@@ -1582,19 +1585,19 @@
         <v>8</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="G27" s="2">
         <v>1</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
@@ -1605,19 +1608,19 @@
         <v>11</v>
       </c>
       <c r="D28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="G28" s="2">
         <v>1</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
@@ -1628,19 +1631,19 @@
         <v>11</v>
       </c>
       <c r="D29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="G29" s="2">
         <v>1</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
@@ -1651,19 +1654,19 @@
         <v>11</v>
       </c>
       <c r="D30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="G30" s="2">
         <v>1</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
@@ -1674,19 +1677,19 @@
         <v>11</v>
       </c>
       <c r="D31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="G31" s="2">
         <v>1</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
@@ -1697,19 +1700,19 @@
         <v>8</v>
       </c>
       <c r="D32" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="G32" s="2">
         <v>1</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
@@ -1720,19 +1723,19 @@
         <v>11</v>
       </c>
       <c r="D33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="G33" s="2">
         <v>1</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
@@ -1740,22 +1743,22 @@
         <v>19</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="G34" s="2">
         <v>1</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
@@ -1766,19 +1769,19 @@
         <v>11</v>
       </c>
       <c r="D35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="G35" s="2">
         <v>3</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
@@ -1789,19 +1792,19 @@
         <v>8</v>
       </c>
       <c r="D36" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="G36" s="2">
         <v>2</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
@@ -1812,19 +1815,19 @@
         <v>11</v>
       </c>
       <c r="D37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="G37" s="2">
         <v>1</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
@@ -1835,19 +1838,19 @@
         <v>11</v>
       </c>
       <c r="D38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="G38" s="2">
         <v>1</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
@@ -1855,22 +1858,22 @@
         <v>24</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="G39" s="2">
         <v>2</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
@@ -1878,22 +1881,22 @@
         <v>25</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="G40" s="2">
         <v>1</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
@@ -1904,19 +1907,19 @@
         <v>8</v>
       </c>
       <c r="D41" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="F41" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="G41" s="2">
         <v>3</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
@@ -1927,19 +1930,19 @@
         <v>8</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G42" s="2">
         <v>10</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
@@ -1950,19 +1953,19 @@
         <v>11</v>
       </c>
       <c r="D43" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="G43" s="2">
         <v>2</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
@@ -1973,19 +1976,19 @@
         <v>11</v>
       </c>
       <c r="D44" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="G44" s="2">
         <v>1</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
@@ -1996,19 +1999,19 @@
         <v>8</v>
       </c>
       <c r="D45" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E45" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="G45" s="2">
         <v>1</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
@@ -2019,19 +2022,19 @@
         <v>8</v>
       </c>
       <c r="D46" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="F46" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="G46" s="2">
         <v>1</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
@@ -2039,22 +2042,22 @@
         <v>32</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D47" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="G47" s="2">
         <v>1</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
@@ -2065,19 +2068,19 @@
         <v>11</v>
       </c>
       <c r="D48" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="G48" s="2">
         <v>1</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.3">
@@ -2085,22 +2088,22 @@
         <v>34</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="E49" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="F49" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="G49" s="2">
         <v>1</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.3">
@@ -2108,22 +2111,22 @@
         <v>35</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D50" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="G50" s="2">
         <v>3</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
@@ -2134,19 +2137,19 @@
         <v>11</v>
       </c>
       <c r="D51" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="G51" s="2">
         <v>2</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.3">
@@ -2157,19 +2160,19 @@
         <v>8</v>
       </c>
       <c r="D52" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E52" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="G52" s="2">
         <v>1</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.3">
@@ -2180,19 +2183,19 @@
         <v>11</v>
       </c>
       <c r="D53" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="G53" s="2">
         <v>2</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.3">
@@ -2203,19 +2206,19 @@
         <v>8</v>
       </c>
       <c r="D54" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E54" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="G54" s="2">
         <v>1</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.3">
@@ -2226,19 +2229,19 @@
         <v>11</v>
       </c>
       <c r="D55" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="G55" s="2">
         <v>2</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
@@ -2249,19 +2252,19 @@
         <v>11</v>
       </c>
       <c r="D56" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E56" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>97</v>
-      </c>
       <c r="G56" s="5">
         <v>1</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.3">
@@ -2272,19 +2275,19 @@
         <v>11</v>
       </c>
       <c r="D57" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="G57" s="2">
         <v>2</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
@@ -2292,22 +2295,22 @@
         <v>43</v>
       </c>
       <c r="C58" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D58" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="E58" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="F58" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F58" s="6" t="s">
-        <v>103</v>
-      </c>
       <c r="G58" s="5">
         <v>1</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
@@ -2315,22 +2318,22 @@
         <v>44</v>
       </c>
       <c r="C59" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F59" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D59" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>105</v>
-      </c>
       <c r="G59" s="5">
         <v>1</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
@@ -2338,22 +2341,22 @@
         <v>45</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D60" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F60" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E60" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>110</v>
-      </c>
       <c r="G60" s="5">
         <v>1</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
@@ -2361,22 +2364,22 @@
         <v>46</v>
       </c>
       <c r="C61" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D61" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="E61" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F61" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E61" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>113</v>
-      </c>
       <c r="G61" s="5">
         <v>1</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
@@ -2384,22 +2387,22 @@
         <v>47</v>
       </c>
       <c r="C62" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D62" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="E62" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F62" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E62" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="G62" s="5">
         <v>1</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.3">
@@ -2407,22 +2410,22 @@
         <v>48</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G63" s="5">
         <v>1</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.3">
@@ -2430,22 +2433,22 @@
         <v>49</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D64" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="G64" s="2">
         <v>6</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.3">
@@ -2453,22 +2456,22 @@
         <v>50</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D65" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="G65" s="2">
         <v>3</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.3">
@@ -2476,22 +2479,22 @@
         <v>51</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D66" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F66" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E66" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>123</v>
-      </c>
       <c r="G66" s="5">
         <v>1</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.3">
@@ -2499,22 +2502,22 @@
         <v>52</v>
       </c>
       <c r="C67" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D67" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="E67" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F67" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="E67" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>126</v>
-      </c>
       <c r="G67" s="5">
         <v>1</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.3">
@@ -2522,22 +2525,22 @@
         <v>53</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D68" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F68" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="E68" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>128</v>
-      </c>
       <c r="G68" s="5">
         <v>1</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.3">
@@ -2545,22 +2548,22 @@
         <v>54</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D69" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F69" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E69" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>130</v>
-      </c>
       <c r="G69" s="5">
         <v>1</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.3">
@@ -2568,22 +2571,22 @@
         <v>55</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D70" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F70" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="E70" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>132</v>
-      </c>
       <c r="G70" s="5">
         <v>1</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.3">
@@ -2591,22 +2594,22 @@
         <v>56</v>
       </c>
       <c r="C71" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F71" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="G71" s="2">
         <v>2</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.3">
@@ -2614,22 +2617,22 @@
         <v>57</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D72" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E72" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="F72" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="F72" s="6" t="s">
-        <v>137</v>
-      </c>
       <c r="G72" s="5">
         <v>1</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.3">
@@ -2637,22 +2640,22 @@
         <v>58</v>
       </c>
       <c r="C73" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F73" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D73" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>139</v>
-      </c>
       <c r="G73" s="5">
         <v>1</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.3">
@@ -2660,22 +2663,22 @@
         <v>59</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D74" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="F74" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>142</v>
-      </c>
       <c r="G74" s="2">
         <v>1</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.3">
@@ -2683,22 +2686,22 @@
         <v>60</v>
       </c>
       <c r="C75" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="E75" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="F75" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F75" s="3" t="s">
-        <v>146</v>
-      </c>
       <c r="G75" s="2">
         <v>1</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.3">
@@ -2706,22 +2709,22 @@
         <v>61</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D76" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F76" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E76" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>148</v>
-      </c>
       <c r="G76" s="5">
         <v>1</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.3">
@@ -2729,22 +2732,22 @@
         <v>62</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D77" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E77" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E77" s="6" t="s">
+      <c r="F77" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F77" s="6" t="s">
-        <v>151</v>
-      </c>
       <c r="G77" s="5">
         <v>1</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.3">
@@ -2752,22 +2755,22 @@
         <v>63</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D78" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F78" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="E78" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>153</v>
-      </c>
       <c r="G78" s="5">
         <v>1</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.3">
@@ -2775,22 +2778,22 @@
         <v>64</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D79" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E79" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="E79" s="6" t="s">
+      <c r="F79" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="F79" s="6" t="s">
-        <v>156</v>
-      </c>
       <c r="G79" s="5">
         <v>1</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.3">
@@ -2798,22 +2801,22 @@
         <v>65</v>
       </c>
       <c r="C80" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D80" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="E80" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F80" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="E80" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>159</v>
-      </c>
       <c r="G80" s="5">
         <v>1</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.3">
@@ -2821,22 +2824,22 @@
         <v>66</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D81" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F81" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="E81" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F81" s="6" t="s">
-        <v>161</v>
-      </c>
       <c r="G81" s="5">
         <v>1</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.3">
@@ -2844,22 +2847,22 @@
         <v>67</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>161</v>
+        <v>228</v>
       </c>
       <c r="G82" s="5">
         <v>1</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.3">
@@ -2867,22 +2870,22 @@
         <v>68</v>
       </c>
       <c r="C83" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D83" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="E83" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E83" s="6" t="s">
+      <c r="F83" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="F83" s="6" t="s">
-        <v>166</v>
-      </c>
       <c r="G83" s="5">
         <v>1</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.3">
@@ -2890,22 +2893,22 @@
         <v>69</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D84" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E84" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="F84" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F84" s="3" t="s">
-        <v>169</v>
-      </c>
       <c r="G84" s="2">
         <v>1</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
